--- a/medicine/Psychotrope/Ampélologie/Ampélologie.xlsx
+++ b/medicine/Psychotrope/Ampélologie/Ampélologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amp%C3%A9lologie</t>
+          <t>Ampélologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ampélologie (du grec « ἄμπελος » ampelos : vigne et « λογος » logia : étude) est la science qui étudie la biologie de la vigne (vitis vinifera), sa culture, l'origine géographique des différents cépages, leur adaptation aux sols et aux climats, ainsi que leurs pathologies et leurs traitements[1]. Le terme est aussi utilisé pour définir un traité sur la vigne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ampélologie (du grec « ἄμπελος » ampelos : vigne et « λογος » logia : étude) est la science qui étudie la biologie de la vigne (vitis vinifera), sa culture, l'origine géographique des différents cépages, leur adaptation aux sols et aux climats, ainsi que leurs pathologies et leurs traitements. Le terme est aussi utilisé pour définir un traité sur la vigne.
 Elle utilise la biologie cellulaire, l'histologie, l'influence de la photosynthèse sur la teneur en sucre du fruit, le processus d'absorption de l'eau et son effet sur l'état des fruits à chaque étape de leur maturation.
 </t>
         </is>
